--- a/concept/public/data/IN-HP.xlsx
+++ b/concept/public/data/IN-HP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,196 +436,152 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>S No.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>College Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>Open Seats</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4</t>
+          <t>mbbs budget</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 5</t>
+          <t>category</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-1</t>
+          <t>RANK (R1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>SCORE (R1)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-2</t>
+          <t>RANK (R2)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 9</t>
+          <t>SCORE (R2)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-3</t>
+          <t>RANK (R3)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>SCORE (R3)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Stary</t>
+          <t>RANK (Stray)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 13</t>
+          <t>SCORE (Stray)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S No.</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>College Name</t>
+          <t>Maharishi Markandeshwar Medical College Solan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Open Seats</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>mbbs budget</t>
-        </is>
+          <t>Solan, Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10424700</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
+          <t>GEN</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>294773</v>
+      </c>
+      <c r="H2" t="n">
+        <v>443</v>
+      </c>
+      <c r="I2" t="n">
+        <v>506340</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340</v>
+      </c>
+      <c r="K2" t="n">
+        <v>553275</v>
+      </c>
+      <c r="L2" t="n">
+        <v>322</v>
+      </c>
+      <c r="M2" t="n">
+        <v>439725</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Maharishi Markandeshwar Medical College Solan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Solan, Himachal Pradesh</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>64</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10424700</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>294773</v>
+        <v>541372</v>
       </c>
       <c r="H3" t="n">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="I3" t="n">
-        <v>506340</v>
+        <v>583626</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
-      </c>
-      <c r="K3" t="n">
-        <v>553275</v>
-      </c>
-      <c r="L3" t="n">
-        <v>322</v>
-      </c>
-      <c r="M3" t="n">
-        <v>439725</v>
-      </c>
-      <c r="N3" t="n">
-        <v>369</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -635,23 +591,27 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>541372</v>
+        <v>762171</v>
       </c>
       <c r="H4" t="n">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="I4" t="n">
-        <v>583626</v>
+        <v>1083813</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>176</v>
+      </c>
+      <c r="K4" t="n">
+        <v>603597</v>
+      </c>
+      <c r="L4" t="n">
+        <v>303</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
@@ -663,57 +623,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>762171</v>
+        <v>1258223</v>
       </c>
       <c r="H5" t="n">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="I5" t="n">
-        <v>1083813</v>
+        <v>938865</v>
       </c>
       <c r="J5" t="n">
-        <v>176</v>
-      </c>
-      <c r="K5" t="n">
-        <v>603597</v>
-      </c>
-      <c r="L5" t="n">
-        <v>303</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1258223</v>
-      </c>
-      <c r="H6" t="n">
-        <v>146</v>
-      </c>
-      <c r="I6" t="n">
-        <v>938865</v>
-      </c>
-      <c r="J6" t="n">
-        <v>207</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
